--- a/Web.xlsx
+++ b/Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,89 @@
   </si>
   <si>
     <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试1</t>
+    <rPh sb="0" eb="1">
+      <t>sou'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.getAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${text}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${str}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.selectByIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.selectByText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.selectByValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.alertAccept</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -500,19 +583,128 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Web.xlsx
+++ b/Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>web.ie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>web.get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,11 +90,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath=</t>
+    <t>web.input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=su</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,11 +102,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>web.text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${text}</t>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahaha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,47 +114,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>web.input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${str}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web.selectByIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web.selectByText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web.selectByValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web.alertAccept</t>
+    <t>web.chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.quit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +483,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -563,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -575,136 +539,83 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Web.xlsx
+++ b/Web.xlsx
@@ -480,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -594,28 +594,12 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Web.xlsx
+++ b/Web.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Web.xlsx
+++ b/Web.xlsx
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>web.quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -495,7 +495,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -513,21 +513,21 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -536,69 +536,69 @@
     <row r="3" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
